--- a/Lab 6/Lab06_ReinKatherine.xlsx
+++ b/Lab 6/Lab06_ReinKatherine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineanne/Desktop/College/Junior Year/Spring Semester/EE 375/EE375_Labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherineanne/Desktop/College/Junior Year/Spring Semester/EE 375/EE375_Labs/Lab 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2AC605-74A9-2E4B-9D22-961F5CDA71B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25550BE1-6162-9C4A-B8E5-4E0D47850233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="16560" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="16560" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Lab Data" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>Data Formated By:</t>
   </si>
   <si>
-    <t>Joshua Mantooth, jam2767@bu.edu</t>
-  </si>
-  <si>
     <t>Data Collection Method:</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>miles</t>
+  </si>
+  <si>
+    <t>Katherine Rein, krein21@bu.edu</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -522,19 +522,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,20 +551,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,30 +897,30 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -933,19 +929,19 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -974,10 +970,10 @@
       <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>28</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1960</v>
       </c>
     </row>
@@ -1003,10 +999,10 @@
       <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>4.75</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>300</v>
       </c>
     </row>
@@ -1032,11 +1028,11 @@
       <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -1062,10 +1058,10 @@
       <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>20</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1091,10 +1087,10 @@
       <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>50</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1120,10 +1116,10 @@
       <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>19</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -1149,10 +1145,10 @@
       <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>3.5</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>210</v>
       </c>
     </row>
@@ -1178,11 +1174,11 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <f>20/60</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1211,11 +1207,11 @@
       <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f>20/60</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>9</v>
       </c>
     </row>
@@ -1241,10 +1237,10 @@
       <c r="H12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>14</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
     </row>
@@ -1273,10 +1269,10 @@
       <c r="H13" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>16</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>800</v>
       </c>
     </row>
@@ -1305,10 +1301,10 @@
       <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>45</v>
       </c>
     </row>
@@ -1334,10 +1330,10 @@
       <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>5.5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>330</v>
       </c>
     </row>
@@ -1366,10 +1362,10 @@
       <c r="H16" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0.5</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>9</v>
       </c>
     </row>
@@ -1398,10 +1394,10 @@
       <c r="H17" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>14</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>840</v>
       </c>
     </row>
@@ -1427,10 +1423,10 @@
       <c r="H18" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>30000</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>5000</v>
       </c>
     </row>
@@ -1456,10 +1452,10 @@
       <c r="H19" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>15</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>250</v>
       </c>
     </row>
@@ -1485,10 +1481,10 @@
       <c r="H20" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>13</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
     </row>
@@ -1514,11 +1510,11 @@
       <c r="H21" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f>55/60</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>55</v>
       </c>
     </row>
@@ -1544,10 +1540,10 @@
       <c r="H22" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>3</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <f>AVERAGE(150,200)</f>
         <v>175</v>
       </c>
@@ -1574,11 +1570,11 @@
       <c r="H23" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1604,11 +1600,11 @@
       <c r="H24" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <f>(45/60)+1</f>
         <v>1.75</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1634,10 +1630,10 @@
       <c r="H25" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>6</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>360</v>
       </c>
     </row>
@@ -1666,10 +1662,10 @@
       <c r="H26" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>300</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
     </row>
@@ -1695,11 +1691,11 @@
       <c r="H27" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <f>55/60</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <f>(55/60)*65</f>
         <v>59.583333333333329</v>
       </c>
@@ -1726,10 +1722,10 @@
       <c r="H28" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>5</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>250</v>
       </c>
     </row>
@@ -1775,65 +1771,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>21</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2" s="7">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7">
         <v>68</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7"/>
       <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <v>28</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="15">
         <v>1960</v>
       </c>
     </row>
@@ -1859,10 +1855,10 @@
       <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>4.75</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>300</v>
       </c>
     </row>
@@ -1888,11 +1884,11 @@
       <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -1918,10 +1914,10 @@
       <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>20</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1947,10 +1943,10 @@
       <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>50</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>50</v>
       </c>
     </row>
@@ -1976,10 +1972,10 @@
       <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>19</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -2005,10 +2001,10 @@
       <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>3.5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>210</v>
       </c>
     </row>
@@ -2034,11 +2030,11 @@
       <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f>20/60</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2067,11 +2063,11 @@
       <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <f>20/60</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>9</v>
       </c>
     </row>
@@ -2097,10 +2093,10 @@
       <c r="H11" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>14</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>7800</v>
       </c>
     </row>
@@ -2129,10 +2125,10 @@
       <c r="H12" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>16</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
     </row>
@@ -2161,10 +2157,10 @@
       <c r="H13" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="3">
         <v>45</v>
       </c>
     </row>
@@ -2190,10 +2186,10 @@
       <c r="H14" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>5.5</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>330</v>
       </c>
     </row>
@@ -2222,10 +2218,10 @@
       <c r="H15" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0.5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>9</v>
       </c>
     </row>
@@ -2254,10 +2250,10 @@
       <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>14</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>840</v>
       </c>
     </row>
@@ -2283,10 +2279,10 @@
       <c r="H17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>30000</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>5000</v>
       </c>
     </row>
@@ -2312,10 +2308,10 @@
       <c r="H18" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>15</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>250</v>
       </c>
     </row>
@@ -2341,10 +2337,10 @@
       <c r="H19" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>13</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>800</v>
       </c>
     </row>
@@ -2370,11 +2366,11 @@
       <c r="H20" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f>55/60</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>55</v>
       </c>
     </row>
@@ -2400,10 +2396,10 @@
       <c r="H21" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>3</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <f>AVERAGE(150,200)</f>
         <v>175</v>
       </c>
@@ -2430,11 +2426,11 @@
       <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>22</v>
       </c>
     </row>
@@ -2460,11 +2456,11 @@
       <c r="H23" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f>(45/60)+1</f>
         <v>1.75</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
     </row>
@@ -2490,10 +2486,10 @@
       <c r="H24" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>6</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>360</v>
       </c>
     </row>
@@ -2522,10 +2518,10 @@
       <c r="H25" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>300</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>1500</v>
       </c>
     </row>
@@ -2551,11 +2547,11 @@
       <c r="H26" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <f>55/60</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <f>(55/60)*65</f>
         <v>59.583333333333329</v>
       </c>
@@ -2582,10 +2578,10 @@
       <c r="H27" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>5</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>250</v>
       </c>
     </row>
@@ -2605,7 +2601,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2627,7 +2623,7 @@
       <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>41164</v>
       </c>
     </row>
@@ -2636,45 +2632,45 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -2682,21 +2678,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -2704,13 +2700,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2718,10 +2714,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2729,7 +2725,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -2737,35 +2733,35 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
         <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
         <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
